--- a/Hardware/RS232/JLCSMT_CPL.xlsx
+++ b/Hardware/RS232/JLCSMT_CPL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL</t>
   </si>
 </sst>
 </file>
@@ -205,10 +211,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:E11"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -407,6 +413,40 @@
         <v>90</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Hardware/RS232/JLCSMT_CPL.xlsx
+++ b/Hardware/RS232/JLCSMT_CPL.xlsx
@@ -214,7 +214,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13:E13"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -302,7 +302,7 @@
         <v>21.75</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>15.24</v>
+        <v>14.84</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>

--- a/Hardware/RS232/JLCSMT_CPL.xlsx
+++ b/Hardware/RS232/JLCSMT_CPL.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">TTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS232</t>
   </si>
 </sst>
 </file>
@@ -206,15 +209,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -447,6 +556,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Hardware/RS232/JLCSMT_CPL.xlsx
+++ b/Hardware/RS232/JLCSMT_CPL.xlsx
@@ -323,7 +323,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13:E14"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -360,7 +360,7 @@
         <v>28.73</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>16.51</v>
+        <v>15.24</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
@@ -377,7 +377,7 @@
         <v>28.73</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>19.53</v>
+        <v>18.26</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
@@ -394,7 +394,7 @@
         <v>30.32</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>18.57</v>
+        <v>17.3</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
@@ -411,7 +411,7 @@
         <v>21.75</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>14.84</v>
+        <v>13.57</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
@@ -442,16 +442,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>25.4</v>
+        <v>27.46</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>23.81</v>
+        <v>21.11</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -459,16 +459,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>22.54</v>
+        <v>20.48</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>23.81</v>
+        <v>21.11</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -479,7 +479,7 @@
         <v>25.24</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>22.38</v>
+        <v>21.11</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
@@ -496,7 +496,7 @@
         <v>22.7</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>22.38</v>
+        <v>21.11</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>6</v>
@@ -513,7 +513,7 @@
         <v>23.97</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>18.89</v>
+        <v>17.62</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
@@ -527,10 +527,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>15.24</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>18.41</v>
+        <v>18.33</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>6</v>
@@ -544,10 +544,10 @@
         <v>17</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>16.07</v>
+        <v>13.65</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>30</v>
+        <v>25.71</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>6</v>

--- a/Hardware/RS232/JLCSMT_CPL.xlsx
+++ b/Hardware/RS232/JLCSMT_CPL.xlsx
@@ -323,7 +323,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -544,16 +544,16 @@
         <v>17</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>13.65</v>
+        <v>23.33</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>25.71</v>
+        <v>26.03</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
